--- a/biology/Botanique/Diselma_archeri/Diselma_archeri.xlsx
+++ b/biology/Botanique/Diselma_archeri/Diselma_archeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diselma archeri est une espèce de conifères de la famille des Cupressaceae. C'est la seule espèce du genre Diselma. On le trouve en Tasmanie (Australie), sur les montagnes de la côte ouest et au niveau du lac Saint Clair à une altitude comprise entre 900 et 1200 mètres.
 C'est un arbuste de 1 à 6 mètres de haut. Les feuilles sont des écailles de 2 à 3 millimètres de long disposées en quatre rangs. Les cônes sont parmi les plus petits chez les conifères, mesurant 2 à 3 millimètres de diamètre et atteignent leur maturité 7 à 8 mois après leur fécondation. Ils sont formés de quatre écailles, chaque écaille portant une petite bractée. La paire supérieure d'écailles possède deux petites graines ailées.
-Il est proche parent des Widdringtonia, dont les quatre seules espèces sont endémiques d'Afrique[1].
+Il est proche parent des Widdringtonia, dont les quatre seules espèces sont endémiques d'Afrique.
 </t>
         </is>
       </c>
